--- a/TOR330 Data/5. Clean Data for Data Visualisation/TOR330_time_travel_issues_df.xlsx
+++ b/TOR330 Data/5. Clean Data for Data Visualisation/TOR330_time_travel_issues_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="110">
   <si>
     <t>PK</t>
   </si>
@@ -64,6 +64,15 @@
     <t>Cut Off Date</t>
   </si>
   <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Checkpoint Duration</t>
+  </si>
+  <si>
+    <t>Missed Lifebase Allocated Time</t>
+  </si>
+  <si>
     <t>Missed Last Checkpoint</t>
   </si>
   <si>
@@ -145,42 +154,72 @@
     <t>TOR330_2023_1170</t>
   </si>
   <si>
-    <t>2023</t>
+    <t>TOR330_2024_404</t>
+  </si>
+  <si>
+    <t>TOR330_2024_1384</t>
+  </si>
+  <si>
+    <t>TOR330_2024_593</t>
+  </si>
+  <si>
+    <t>TOR330_2024_405</t>
+  </si>
+  <si>
+    <t>TOR330_2024_223</t>
+  </si>
+  <si>
+    <t>TOR330_2024_567</t>
+  </si>
+  <si>
+    <t>TOR330_2024_38</t>
+  </si>
+  <si>
+    <t>TOR330_2024_431</t>
+  </si>
+  <si>
+    <t>TOR330_2024_1367</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
   <si>
     <t>TOR330</t>
   </si>
   <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>343</t>
-  </si>
-  <si>
-    <t>1391</t>
-  </si>
-  <si>
-    <t>1291</t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>1334</t>
-  </si>
-  <si>
-    <t>1170</t>
-  </si>
-  <si>
-    <t>Finished</t>
+    <t>404</t>
+  </si>
+  <si>
+    <t>1384</t>
+  </si>
+  <si>
+    <t>593</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>1367</t>
+  </si>
+  <si>
+    <t>Finished at Courmayeur</t>
   </si>
   <si>
     <t>DNF</t>
   </si>
   <si>
-    <t>Finished at Courmayeur</t>
-  </si>
-  <si>
     <t>Finished at Rifugio Frassati</t>
   </si>
   <si>
@@ -199,60 +238,69 @@
     <t>Rifugio Magià</t>
   </si>
   <si>
-    <t>Rifugio Frassati</t>
+    <t>Cogne</t>
+  </si>
+  <si>
+    <t>No Wave in 2021</t>
+  </si>
+  <si>
+    <t>Wave1</t>
+  </si>
+  <si>
+    <t>Wave2</t>
+  </si>
+  <si>
+    <t>FINISH</t>
+  </si>
+  <si>
+    <t>Ollomont OUT</t>
+  </si>
+  <si>
+    <t>Rifugio Coda</t>
+  </si>
+  <si>
+    <t>Champoluc</t>
+  </si>
+  <si>
+    <t>Gressoney OUT</t>
+  </si>
+  <si>
+    <t>Valtournenche OUT</t>
+  </si>
+  <si>
+    <t>Bivacco R. Clermont</t>
+  </si>
+  <si>
+    <t>Rifugio Dondena</t>
+  </si>
+  <si>
+    <t>Chardonney</t>
+  </si>
+  <si>
+    <t>Loo</t>
+  </si>
+  <si>
+    <t>Donnas IN</t>
   </si>
   <si>
     <t>Bosses</t>
   </si>
   <si>
-    <t>No Wave in 2021</t>
-  </si>
-  <si>
-    <t>Wave1</t>
-  </si>
-  <si>
-    <t>Wave2</t>
-  </si>
-  <si>
-    <t>FINISH</t>
-  </si>
-  <si>
-    <t>Ollomont OUT</t>
-  </si>
-  <si>
-    <t>Rifugio Coda</t>
-  </si>
-  <si>
-    <t>Champoluc</t>
-  </si>
-  <si>
-    <t>Gressoney OUT</t>
-  </si>
-  <si>
-    <t>Valtournenche OUT</t>
-  </si>
-  <si>
-    <t>Bivacco R. Clermont</t>
-  </si>
-  <si>
-    <t>Rifugio Dondena</t>
-  </si>
-  <si>
-    <t>Chardonney</t>
-  </si>
-  <si>
-    <t>Loo</t>
-  </si>
-  <si>
-    <t>Donnas IN</t>
-  </si>
-  <si>
     <t>Cogne OUT</t>
   </si>
   <si>
     <t>Goilles</t>
   </si>
   <si>
+    <t>Monte de la Saxe</t>
+  </si>
+  <si>
+    <t>Rifugio Champillon</t>
+  </si>
+  <si>
+    <t>Bruson Arp</t>
+  </si>
+  <si>
     <t>Sub-120</t>
   </si>
   <si>
@@ -272,6 +320,30 @@
   </si>
   <si>
     <t>Sub-150</t>
+  </si>
+  <si>
+    <t>Stage 7</t>
+  </si>
+  <si>
+    <t>Time Spent in Ollomont</t>
+  </si>
+  <si>
+    <t>Stage 5</t>
+  </si>
+  <si>
+    <t>Time Spent in Gressoney</t>
+  </si>
+  <si>
+    <t>Time Spent in Valtournenche</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
+  <si>
+    <t>Time Spent in Cogne</t>
+  </si>
+  <si>
+    <t>Within Allocated Time</t>
   </si>
 </sst>
 </file>
@@ -634,13 +706,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,16 +773,25 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>2021</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D2">
         <v>766</v>
@@ -719,19 +800,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="J2" s="2">
         <v>44456.35815972222</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="L2">
         <v>-0.4352546296296296</v>
@@ -748,22 +829,31 @@
       <c r="P2" s="2">
         <v>44457.66666666666</v>
       </c>
-      <c r="Q2" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="Q2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R2">
+        <v>0.875</v>
+      </c>
+      <c r="S2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <v>2021</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D3">
         <v>162</v>
@@ -772,19 +862,19 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="J3" s="2">
         <v>44456.22016203704</v>
       </c>
       <c r="K3" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="L3">
         <v>-0.001018518518518518</v>
@@ -801,22 +891,31 @@
       <c r="P3" s="2">
         <v>44456.79166666666</v>
       </c>
-      <c r="Q3" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="Q3" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="S3" t="s">
+        <v>109</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4">
         <v>2021</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D4">
         <v>7</v>
@@ -825,22 +924,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="J4" s="2">
         <v>44452.69923611111</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="L4">
         <v>-1.500034722222222</v>
@@ -854,22 +953,25 @@
       <c r="O4">
         <v>110814</v>
       </c>
-      <c r="Q4" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="S4" t="s">
+        <v>109</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>2022</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -878,19 +980,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="J5" s="2">
         <v>44817.16307870371</v>
       </c>
       <c r="K5" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="L5">
         <v>-0.2740277777777778</v>
@@ -907,22 +1009,31 @@
       <c r="P5" s="2">
         <v>44819.54166666666</v>
       </c>
-      <c r="Q5" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="Q5" t="s">
+        <v>104</v>
+      </c>
+      <c r="R5">
+        <v>0.5</v>
+      </c>
+      <c r="S5" t="s">
+        <v>109</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>2022</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>275</v>
@@ -931,19 +1042,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="J6" s="2">
         <v>44817.39240740741</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="L6">
         <v>-0.003252314814814815</v>
@@ -960,22 +1071,31 @@
       <c r="P6" s="2">
         <v>44819.04166666666</v>
       </c>
-      <c r="Q6" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="Q6" t="s">
+        <v>105</v>
+      </c>
+      <c r="R6">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="S6" t="s">
+        <v>109</v>
+      </c>
+      <c r="T6" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>2022</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>127</v>
@@ -984,19 +1104,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J7" s="2">
         <v>44818.26855324074</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="L7">
         <v>-0.0005439814814814814</v>
@@ -1013,22 +1133,31 @@
       <c r="P7" s="2">
         <v>44819.875</v>
       </c>
-      <c r="Q7" t="b">
-        <v>0</v>
-      </c>
-      <c r="R7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="Q7" t="s">
+        <v>106</v>
+      </c>
+      <c r="R7">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="S7" t="s">
+        <v>109</v>
+      </c>
+      <c r="T7" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8">
         <v>2022</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>98</v>
@@ -1037,19 +1166,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="J8" s="2">
         <v>44820.53862268518</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="L8">
         <v>-0.1621990740740741</v>
@@ -1066,22 +1195,31 @@
       <c r="P8" s="2">
         <v>44821.66666666666</v>
       </c>
-      <c r="Q8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="Q8" t="s">
+        <v>102</v>
+      </c>
+      <c r="R8">
+        <v>0.875</v>
+      </c>
+      <c r="S8" t="s">
+        <v>109</v>
+      </c>
+      <c r="T8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>2022</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>317</v>
@@ -1090,19 +1228,19 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J9" s="2">
         <v>44819.6137037037</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="L9">
         <v>-0.1996296296296296</v>
@@ -1116,22 +1254,25 @@
       <c r="O9">
         <v>362624</v>
       </c>
-      <c r="Q9" t="b">
-        <v>0</v>
-      </c>
-      <c r="R9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="S9" t="s">
+        <v>109</v>
+      </c>
+      <c r="T9" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>2022</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D10">
         <v>549</v>
@@ -1140,19 +1281,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="J10" s="2">
         <v>44820.2553125</v>
       </c>
       <c r="K10" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="L10">
         <v>-0.0003587962962962963</v>
@@ -1169,22 +1310,31 @@
       <c r="P10" s="2">
         <v>44820.79166666666</v>
       </c>
-      <c r="Q10" t="b">
-        <v>0</v>
-      </c>
-      <c r="R10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="Q10" t="s">
+        <v>103</v>
+      </c>
+      <c r="R10">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="S10" t="s">
+        <v>109</v>
+      </c>
+      <c r="T10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>2022</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D11">
         <v>65</v>
@@ -1193,16 +1343,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J11" s="2">
         <v>44816.47495370371</v>
@@ -1219,22 +1369,25 @@
       <c r="O11">
         <v>91436</v>
       </c>
-      <c r="Q11" t="b">
-        <v>0</v>
-      </c>
-      <c r="R11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="S11" t="s">
+        <v>109</v>
+      </c>
+      <c r="T11" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>2022</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D12">
         <v>108</v>
@@ -1243,16 +1396,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="J12" s="2">
         <v>44816.80444444445</v>
@@ -1269,22 +1422,25 @@
       <c r="O12">
         <v>119904</v>
       </c>
-      <c r="Q12" t="b">
-        <v>0</v>
-      </c>
-      <c r="R12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="S12" t="s">
+        <v>109</v>
+      </c>
+      <c r="T12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>2022</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D13">
         <v>137</v>
@@ -1293,16 +1449,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="J13" s="2">
         <v>44816.7556712963</v>
@@ -1319,22 +1475,25 @@
       <c r="O13">
         <v>115690</v>
       </c>
-      <c r="Q13" t="b">
-        <v>0</v>
-      </c>
-      <c r="R13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="S13" t="s">
+        <v>109</v>
+      </c>
+      <c r="T13" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B14">
         <v>2022</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>366</v>
@@ -1343,16 +1502,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="J14" s="2">
         <v>44818.45127314814</v>
@@ -1369,22 +1525,25 @@
       <c r="O14">
         <v>262190</v>
       </c>
-      <c r="Q14" t="b">
-        <v>0</v>
-      </c>
-      <c r="R14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="S14" t="s">
+        <v>109</v>
+      </c>
+      <c r="T14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B15">
         <v>2022</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D15">
         <v>1005</v>
@@ -1393,16 +1552,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="J15" s="2">
         <v>44819.50680555555</v>
@@ -1422,22 +1578,31 @@
       <c r="P15" s="2">
         <v>44819.95833333334</v>
       </c>
-      <c r="Q15" t="b">
-        <v>0</v>
-      </c>
-      <c r="R15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="Q15" t="s">
+        <v>106</v>
+      </c>
+      <c r="R15">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="S15" t="s">
+        <v>109</v>
+      </c>
+      <c r="T15" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <v>2022</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>1205</v>
@@ -1446,16 +1611,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="J16" s="2">
         <v>44818.92413194444</v>
@@ -1475,22 +1637,31 @@
       <c r="P16" s="2">
         <v>44819.125</v>
       </c>
-      <c r="Q16" t="b">
-        <v>0</v>
-      </c>
-      <c r="R16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="Q16" t="s">
+        <v>105</v>
+      </c>
+      <c r="R16">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="S16" t="s">
+        <v>109</v>
+      </c>
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>2022</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>1268</v>
@@ -1499,16 +1670,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="J17" s="2">
         <v>44818.92489583333</v>
@@ -1528,22 +1696,31 @@
       <c r="P17" s="2">
         <v>44819.125</v>
       </c>
-      <c r="Q17" t="b">
-        <v>0</v>
-      </c>
-      <c r="R17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="Q17" t="s">
+        <v>105</v>
+      </c>
+      <c r="R17">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="S17" t="s">
+        <v>109</v>
+      </c>
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>2023</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D18">
         <v>334</v>
@@ -1552,19 +1729,19 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J18" s="2">
         <v>45180.90565972222</v>
       </c>
       <c r="K18" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="L18">
         <v>-0.4725810185185185</v>
@@ -1581,22 +1758,31 @@
       <c r="P18" s="2">
         <v>45182</v>
       </c>
-      <c r="Q18" t="b">
-        <v>0</v>
-      </c>
-      <c r="R18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="Q18" t="s">
+        <v>107</v>
+      </c>
+      <c r="R18">
+        <v>0.75</v>
+      </c>
+      <c r="S18" t="s">
+        <v>109</v>
+      </c>
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>2023</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>343</v>
@@ -1605,19 +1791,19 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H19" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="J19" s="2">
         <v>45182.46465277778</v>
       </c>
       <c r="K19" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="L19">
         <v>-0.0003935185185185185</v>
@@ -1634,22 +1820,31 @@
       <c r="P19" s="2">
         <v>45183.04166666666</v>
       </c>
-      <c r="Q19" t="b">
-        <v>0</v>
-      </c>
-      <c r="R19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="Q19" t="s">
+        <v>105</v>
+      </c>
+      <c r="R19">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="S19" t="s">
+        <v>109</v>
+      </c>
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>2023</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>1391</v>
@@ -1658,19 +1853,19 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="J20" s="2">
         <v>45184.5540625</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="L20">
         <v>-0.523912037037037</v>
@@ -1684,22 +1879,25 @@
       <c r="O20">
         <v>436671</v>
       </c>
-      <c r="Q20" t="b">
-        <v>0</v>
-      </c>
-      <c r="R20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="S20" t="s">
+        <v>109</v>
+      </c>
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>2023</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>1291</v>
@@ -1708,19 +1906,19 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J21" s="2">
         <v>45180.95467592592</v>
       </c>
       <c r="K21" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="L21">
         <v>-0.0001157407407407407</v>
@@ -1737,22 +1935,31 @@
       <c r="P21" s="2">
         <v>45181.33333333334</v>
       </c>
-      <c r="Q21" t="b">
-        <v>0</v>
-      </c>
-      <c r="R21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="Q21" t="s">
+        <v>108</v>
+      </c>
+      <c r="R21">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="S21" t="s">
+        <v>109</v>
+      </c>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>2023</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D22">
         <v>423</v>
@@ -1761,19 +1968,19 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H22" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="J22" s="2">
         <v>45183.8446412037</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="L22">
         <v>-0.02489583333333333</v>
@@ -1790,22 +1997,31 @@
       <c r="P22" s="2">
         <v>45184.79166666666</v>
       </c>
-      <c r="Q22" t="b">
-        <v>0</v>
-      </c>
-      <c r="R22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="Q22" t="s">
+        <v>103</v>
+      </c>
+      <c r="R22">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="S22" t="s">
+        <v>109</v>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B23">
         <v>2023</v>
       </c>
       <c r="C23" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D23">
         <v>1334</v>
@@ -1814,19 +2030,19 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="J23" s="2">
         <v>45180.98311342593</v>
       </c>
       <c r="K23" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="L23">
         <v>-0.0002083333333333333</v>
@@ -1843,22 +2059,31 @@
       <c r="P23" s="2">
         <v>45181.33333333334</v>
       </c>
-      <c r="Q23" t="b">
-        <v>0</v>
-      </c>
-      <c r="R23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="Q23" t="s">
+        <v>108</v>
+      </c>
+      <c r="R23">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="S23" t="s">
+        <v>109</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B24">
         <v>2023</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D24">
         <v>1170</v>
@@ -1867,19 +2092,19 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H24" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J24" s="2">
         <v>45181.15703703704</v>
       </c>
       <c r="K24" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="L24">
         <v>-0.001759259259259259</v>
@@ -1893,375 +2118,564 @@
       <c r="O24">
         <v>143168</v>
       </c>
-      <c r="Q24" t="b">
-        <v>0</v>
-      </c>
-      <c r="R24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" t="s">
+        <v>109</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H25" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="J25" s="2">
-        <v>45180.90565972222</v>
+        <v>45546.77756944444</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="L25" s="3">
-        <v>-0.4725810185185185</v>
+        <v>-0.007534722222222222</v>
       </c>
       <c r="M25">
-        <v>-40831</v>
+        <v>-651</v>
       </c>
       <c r="N25" s="3">
-        <v>1.488993055555556</v>
+        <v>3.360902777777778</v>
       </c>
       <c r="O25">
-        <v>128649</v>
+        <v>290382</v>
       </c>
       <c r="P25" s="2">
-        <v>45182</v>
-      </c>
-      <c r="Q25" t="b">
-        <v>0</v>
-      </c>
-      <c r="R25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>45547.875</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>106</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="S25" t="s">
+        <v>109</v>
+      </c>
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H26" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="J26" s="2">
-        <v>45182.46465277778</v>
+        <v>45549.00076388889</v>
       </c>
       <c r="K26" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="L26" s="3">
-        <v>-0.0003935185185185185</v>
+        <v>-0.001527777777777778</v>
       </c>
       <c r="M26">
-        <v>-34</v>
+        <v>-132</v>
       </c>
       <c r="N26" s="3">
-        <v>3.047986111111111</v>
+        <v>5.500763888888889</v>
       </c>
       <c r="O26">
-        <v>263346</v>
-      </c>
-      <c r="P26" s="2">
-        <v>45183.04166666666</v>
-      </c>
-      <c r="Q26" t="b">
-        <v>0</v>
-      </c>
-      <c r="R26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>475266.0000000001</v>
+      </c>
+      <c r="S26" t="s">
+        <v>109</v>
+      </c>
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+      <c r="U26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="J27" s="2">
-        <v>45184.5540625</v>
+        <v>45548.98298611111</v>
       </c>
       <c r="K27" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="L27" s="3">
-        <v>-0.523912037037037</v>
+        <v>-0.01901620370370371</v>
       </c>
       <c r="M27">
-        <v>-45266</v>
+        <v>-1643</v>
       </c>
       <c r="N27" s="3">
-        <v>5.0540625</v>
+        <v>5.566319444444445</v>
       </c>
       <c r="O27">
-        <v>436671</v>
-      </c>
-      <c r="Q27" t="b">
-        <v>0</v>
-      </c>
-      <c r="R27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>480930.0000000001</v>
+      </c>
+      <c r="S27" t="s">
+        <v>109</v>
+      </c>
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+      <c r="U27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H28" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="J28" s="2">
-        <v>45180.95467592592</v>
+        <v>45549.00091435185</v>
       </c>
       <c r="K28" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="L28" s="3">
-        <v>-0.0001157407407407407</v>
+        <v>-0.001319444444444444</v>
       </c>
       <c r="M28">
-        <v>-10</v>
+        <v>-114</v>
       </c>
       <c r="N28" s="3">
-        <v>1.454675925925926</v>
+        <v>5.584247685185185</v>
       </c>
       <c r="O28">
-        <v>125684</v>
-      </c>
-      <c r="P28" s="2">
-        <v>45181.33333333334</v>
-      </c>
-      <c r="Q28" t="b">
-        <v>0</v>
-      </c>
-      <c r="R28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>482479.0000000001</v>
+      </c>
+      <c r="S28" t="s">
+        <v>109</v>
+      </c>
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H29" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="J29" s="2">
-        <v>45183.8446412037</v>
+        <v>45549.00192129629</v>
       </c>
       <c r="K29" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="L29" s="3">
-        <v>-0.02489583333333333</v>
+        <v>-0.0002430555555555555</v>
       </c>
       <c r="M29">
-        <v>-2151</v>
+        <v>-21</v>
       </c>
       <c r="N29" s="3">
-        <v>4.427974537037037</v>
+        <v>5.585254629629629</v>
       </c>
       <c r="O29">
-        <v>382577</v>
-      </c>
-      <c r="P29" s="2">
-        <v>45184.79166666666</v>
-      </c>
-      <c r="Q29" t="b">
-        <v>0</v>
-      </c>
-      <c r="R29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>482566.0000000001</v>
+      </c>
+      <c r="S29" t="s">
+        <v>109</v>
+      </c>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+      <c r="U29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="2">
+        <v>45548.99665509259</v>
+      </c>
+      <c r="K30" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30" s="3">
+        <v>-0.005416666666666667</v>
+      </c>
+      <c r="M30">
+        <v>-468.0000000000001</v>
+      </c>
+      <c r="N30" s="3">
+        <v>5.579988425925926</v>
+      </c>
+      <c r="O30">
+        <v>482111.0000000001</v>
+      </c>
+      <c r="S30" t="s">
+        <v>109</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+      <c r="U30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" t="s">
         <v>52</v>
       </c>
-      <c r="H30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" t="s">
-        <v>77</v>
-      </c>
-      <c r="J30" s="2">
-        <v>45180.98311342593</v>
-      </c>
-      <c r="K30" t="s">
-        <v>85</v>
-      </c>
-      <c r="L30" s="3">
-        <v>-0.0002083333333333333</v>
-      </c>
-      <c r="M30">
-        <v>-18</v>
-      </c>
-      <c r="N30" s="3">
-        <v>1.483113425925926</v>
-      </c>
-      <c r="O30">
-        <v>128141</v>
-      </c>
-      <c r="P30" s="2">
-        <v>45181.33333333334</v>
-      </c>
-      <c r="Q30" t="b">
-        <v>0</v>
-      </c>
-      <c r="R30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="H31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s">
+        <v>93</v>
+      </c>
+      <c r="J31" s="2">
+        <v>45547.86248842593</v>
+      </c>
+      <c r="K31" t="s">
+        <v>101</v>
+      </c>
+      <c r="L31" s="3">
+        <v>-0.7659490740740741</v>
+      </c>
+      <c r="M31">
+        <v>-66178</v>
+      </c>
+      <c r="N31" s="3">
+        <v>4.445821759259259</v>
+      </c>
+      <c r="O31">
+        <v>384119</v>
+      </c>
+      <c r="S31" t="s">
+        <v>109</v>
+      </c>
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+      <c r="U31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" t="s">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s">
+        <v>94</v>
+      </c>
+      <c r="J32" s="2">
+        <v>45547.67736111111</v>
+      </c>
+      <c r="K32" t="s">
+        <v>101</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-0.6936458333333333</v>
+      </c>
+      <c r="M32">
+        <v>-59931.00000000001</v>
+      </c>
+      <c r="N32" s="3">
+        <v>4.260694444444445</v>
+      </c>
+      <c r="O32">
+        <v>368124</v>
+      </c>
+      <c r="S32" t="s">
+        <v>109</v>
+      </c>
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+      <c r="U32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" t="s">
+        <v>76</v>
+      </c>
+      <c r="I33" t="s">
+        <v>93</v>
+      </c>
+      <c r="J33" s="2">
+        <v>45547.88945601852</v>
+      </c>
+      <c r="K33" t="s">
+        <v>101</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-0.8231597222222222</v>
+      </c>
+      <c r="M33">
+        <v>-71121</v>
+      </c>
+      <c r="N33" s="3">
+        <v>4.472789351851852</v>
+      </c>
+      <c r="O33">
+        <v>386449</v>
+      </c>
+      <c r="S33" t="s">
+        <v>109</v>
+      </c>
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
+      <c r="U33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
         <v>65</v>
       </c>
-      <c r="I31" t="s">
-        <v>78</v>
-      </c>
-      <c r="J31" s="2">
-        <v>45181.15703703704</v>
-      </c>
-      <c r="K31" t="s">
-        <v>85</v>
-      </c>
-      <c r="L31" s="3">
-        <v>-0.001759259259259259</v>
-      </c>
-      <c r="M31">
-        <v>-152</v>
-      </c>
-      <c r="N31" s="3">
-        <v>1.657037037037037</v>
-      </c>
-      <c r="O31">
-        <v>143168</v>
-      </c>
-      <c r="Q31" t="b">
-        <v>0</v>
-      </c>
-      <c r="R31" t="b">
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" s="2">
+        <v>45545.14299768519</v>
+      </c>
+      <c r="K34" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" s="3">
+        <v>-0.0003587962962962963</v>
+      </c>
+      <c r="M34">
+        <v>-31</v>
+      </c>
+      <c r="N34" s="3">
+        <v>1.642997685185185</v>
+      </c>
+      <c r="O34">
+        <v>141955</v>
+      </c>
+      <c r="P34" s="2">
+        <v>45545.33333333334</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>108</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="S34" t="s">
+        <v>109</v>
+      </c>
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+      <c r="U34" t="b">
         <v>0</v>
       </c>
     </row>
